--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLTMoneyType.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLTMoneyType.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C759C9C-6208-448A-93D5-C54E1C10252C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121E0BB6-AB48-4899-82D1-41B5972468B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Đến:</t>
   </si>
   <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
-  <si>
     <t>Thị trường</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT HỒ SƠ - THEO THỊ TRƯỜNG - LOẠI TIỀN</t>
   </si>
 </sst>
 </file>
@@ -175,13 +175,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -501,7 +501,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,17 +524,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
@@ -547,15 +547,15 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -589,28 +589,28 @@
     </row>
     <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="8"/>
